--- a/输入.xlsx
+++ b/输入.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>借款人姓名</t>
   </si>
@@ -88,12 +88,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -731,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +780,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1310,8 +1314,8 @@
   <sheetPr/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1451,7 +1455,7 @@
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="D14" s="13">
+      <c r="D14" s="16">
         <v>45406</v>
       </c>
       <c r="E14" s="14">
@@ -1461,54 +1465,84 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="4:6">
-      <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="9"/>
+    <row r="15" customFormat="1" spans="4:6">
+      <c r="D15" s="13">
+        <v>45346</v>
+      </c>
+      <c r="E15" s="14">
+        <v>13</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="4:6">
+      <c r="D16" s="13">
+        <v>45528</v>
+      </c>
+      <c r="E16" s="14">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="4:6">
+      <c r="D17" s="13">
+        <v>45533</v>
+      </c>
+      <c r="E17" s="14">
+        <v>3</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="4:6">
+      <c r="D18" s="16">
+        <v>45349</v>
+      </c>
+      <c r="E18" s="14">
+        <v>13</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="4:6">
+      <c r="D19" s="13">
+        <v>45464</v>
+      </c>
+      <c r="E19" s="14">
+        <v>13</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="14"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="14"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="9"/>
     </row>
   </sheetData>
@@ -1528,7 +1562,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1544,7 +1578,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1560,7 +1594,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1576,7 +1610,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>

--- a/输入.xlsx
+++ b/输入.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>借款人姓名</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>利息</t>
+  </si>
+  <si>
+    <t>逾期利息</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1318,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1462,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="4:6">
@@ -1495,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="4:6">
@@ -1520,15 +1523,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="14"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="14"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="9"/>
+    <row r="20" customFormat="1" spans="4:6">
+      <c r="D20" s="13">
+        <v>45466</v>
+      </c>
+      <c r="E20" s="14">
+        <v>13</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="4:6">
+      <c r="D21" s="13">
+        <v>45467</v>
+      </c>
+      <c r="E21" s="14">
+        <v>13</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="14"/>

--- a/输入.xlsx
+++ b/输入.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>借款人姓名</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>利息</t>
-  </si>
-  <si>
-    <t>逾期利息</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1315,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1465,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="4:6">
@@ -1498,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="4:6">

--- a/输入.xlsx
+++ b/输入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19120" windowHeight="7470"/>
+    <workbookView windowHeight="7690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>借款人姓名</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>利息</t>
+  </si>
+  <si>
+    <t>逾期利息</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,9 +786,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1312,10 +1312,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1325,6 +1325,8 @@
     <col min="4" max="4" width="14.8909090909091" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.1181818181818" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.25454545454545" customWidth="1"/>
+    <col min="8" max="8" width="15.1727272727273" customWidth="1"/>
+    <col min="9" max="9" width="32.8818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" spans="1:5">
@@ -1352,15 +1354,18 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="H3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="4:6">
+    <row r="4" spans="4:10">
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1368,8 +1373,15 @@
         <v>61000</v>
       </c>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="4:6">
+      <c r="H4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8">
+        <v>61000</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="4:10">
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1377,8 +1389,15 @@
         <v>0.1296</v>
       </c>
       <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="4:6">
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.1296</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" ht="28" spans="4:10">
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1386,8 +1405,15 @@
         <v>0.1944</v>
       </c>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="4:6">
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.1944</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" ht="28" spans="4:10">
       <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1395,8 +1421,15 @@
         <v>12</v>
       </c>
       <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="4:6">
+      <c r="H7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="8">
+        <v>12</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="4:10">
       <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1404,8 +1437,15 @@
         <v>45125</v>
       </c>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="4:6">
+      <c r="H8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="11">
+        <v>45491</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="4:10">
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1413,8 +1453,15 @@
         <v>45491</v>
       </c>
       <c r="F9" s="9"/>
-    </row>
-    <row r="10" ht="28" spans="4:6">
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="11">
+        <v>45856</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" ht="28" spans="4:10">
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1422,8 +1469,15 @@
         <v>12</v>
       </c>
       <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="4:6">
+      <c r="H10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" ht="28" spans="4:10">
       <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
@@ -1433,8 +1487,17 @@
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="4:6">
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8">
+        <v>22</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10">
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1505,15 @@
         <v>7</v>
       </c>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="4:6">
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="4:10">
       <c r="D13" s="13">
         <v>45405</v>
       </c>
@@ -1453,8 +1523,17 @@
       <c r="F13" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="4:6">
+      <c r="H13" s="13">
+        <v>45711</v>
+      </c>
+      <c r="I13" s="14">
+        <v>500</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
       <c r="D14" s="16">
         <v>45406</v>
       </c>
@@ -1464,8 +1543,17 @@
       <c r="F14" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="4:6">
+      <c r="H14" s="16">
+        <v>45762</v>
+      </c>
+      <c r="I14" s="14">
+        <v>34</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="4:10">
       <c r="D15" s="13">
         <v>45346</v>
       </c>
@@ -1475,8 +1563,17 @@
       <c r="F15" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="4:6">
+      <c r="H15" s="13">
+        <v>45724</v>
+      </c>
+      <c r="I15" s="14">
+        <v>102</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="4:10">
       <c r="D16" s="13">
         <v>45528</v>
       </c>
@@ -1486,8 +1583,17 @@
       <c r="F16" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="4:6">
+      <c r="H16" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I16" s="14">
+        <v>500</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="4:10">
       <c r="D17" s="13">
         <v>45533</v>
       </c>
@@ -1497,8 +1603,17 @@
       <c r="F17" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="4:6">
+      <c r="H17" s="13">
+        <v>45655</v>
+      </c>
+      <c r="I17" s="14">
+        <v>3</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="4:10">
       <c r="D18" s="16">
         <v>45349</v>
       </c>
@@ -1508,8 +1623,17 @@
       <c r="F18" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" spans="4:6">
+      <c r="H18" s="16">
+        <v>45352</v>
+      </c>
+      <c r="I18" s="14">
+        <v>13</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="4:10">
       <c r="D19" s="13">
         <v>45464</v>
       </c>
@@ -1519,8 +1643,17 @@
       <c r="F19" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" customFormat="1" spans="4:6">
+      <c r="H19" s="13">
+        <v>45679</v>
+      </c>
+      <c r="I19" s="14">
+        <v>13</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="4:10">
       <c r="D20" s="13">
         <v>45466</v>
       </c>
@@ -1530,8 +1663,17 @@
       <c r="F20" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" customFormat="1" spans="4:6">
+      <c r="H20" s="13">
+        <v>45648</v>
+      </c>
+      <c r="I20" s="14">
+        <v>100</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="4:10">
       <c r="D21" s="13">
         <v>45467</v>
       </c>
@@ -1541,26 +1683,109 @@
       <c r="F21" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="14"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="14"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="14"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="9"/>
+      <c r="H21" s="13">
+        <v>45620</v>
+      </c>
+      <c r="I21" s="14">
+        <v>13</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="13">
+        <v>45491</v>
+      </c>
+      <c r="E22" s="14">
+        <v>13</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="13">
+        <v>45656</v>
+      </c>
+      <c r="I22" s="14">
+        <v>13</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="4:10">
+      <c r="D23" s="13">
+        <v>45491</v>
+      </c>
+      <c r="E23" s="14">
+        <v>100</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="13">
+        <v>45706</v>
+      </c>
+      <c r="I23" s="14">
+        <v>100</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="4:10">
+      <c r="D24" s="13">
+        <v>45372</v>
+      </c>
+      <c r="E24" s="14">
+        <v>100</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="13">
+        <v>45404</v>
+      </c>
+      <c r="I24" s="14">
+        <v>100</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="4:10">
+      <c r="D25" s="13">
+        <v>45467</v>
+      </c>
+      <c r="E25" s="14">
+        <v>100</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" customFormat="1" spans="4:10">
+      <c r="D26" s="13">
+        <v>45473</v>
+      </c>
+      <c r="E26" s="14">
+        <v>100</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/输入.xlsx
+++ b/输入.xlsx
@@ -1314,8 +1314,8 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" ht="28" spans="4:10">
+    <row r="6" spans="4:10">
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" ht="28" spans="4:10">
+    <row r="7" spans="4:10">
       <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" ht="28" spans="4:10">
+    <row r="11" spans="4:10">
       <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="16">
-        <v>45352</v>
+        <v>45717</v>
       </c>
       <c r="I18" s="14">
         <v>13</v>
@@ -1744,7 +1744,7 @@
         <v>17</v>
       </c>
       <c r="H24" s="13">
-        <v>45404</v>
+        <v>45769</v>
       </c>
       <c r="I24" s="14">
         <v>100</v>

--- a/输入.xlsx
+++ b/输入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="7690"/>
+    <workbookView windowWidth="22530" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
   <si>
     <t>借款人姓名</t>
   </si>
@@ -72,6 +72,9 @@
     <t>每月付息，期末本息一次付清。结息周期：每月21日结息</t>
   </si>
   <si>
+    <t>等额本金</t>
+  </si>
+  <si>
     <t>每月结息日</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
   </si>
   <si>
     <t>利息</t>
+  </si>
+  <si>
+    <t>本金</t>
   </si>
   <si>
     <t>逾期利息</t>
@@ -1312,10 +1318,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1327,6 +1333,10 @@
     <col min="6" max="6" width="9.25454545454545" customWidth="1"/>
     <col min="8" max="8" width="15.1727272727273" customWidth="1"/>
     <col min="9" max="9" width="32.8818181818182" customWidth="1"/>
+    <col min="12" max="12" width="17.0727272727273" customWidth="1"/>
+    <col min="13" max="13" width="22.6" customWidth="1"/>
+    <col min="16" max="16" width="15.2545454545455" customWidth="1"/>
+    <col min="17" max="17" width="12.0181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" spans="1:5">
@@ -1343,7 +1353,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1360,12 +1370,18 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="4:10">
+      <c r="L3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="4:18">
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1380,8 +1396,22 @@
         <v>61000</v>
       </c>
       <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="4:10">
+      <c r="L4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="8">
+        <v>61000</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="P4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>61000</v>
+      </c>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="4:18">
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1396,8 +1426,22 @@
         <v>0.1296</v>
       </c>
       <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="4:10">
+      <c r="L5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.1296</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="P5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0.1296</v>
+      </c>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" ht="28" spans="4:18">
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1412,8 +1456,22 @@
         <v>0.1944</v>
       </c>
       <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="4:10">
+      <c r="L6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.1944</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="P6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0.1944</v>
+      </c>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" ht="28" spans="4:18">
       <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1428,8 +1486,22 @@
         <v>12</v>
       </c>
       <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="4:10">
+      <c r="L7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="8">
+        <v>15</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="P7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>12</v>
+      </c>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="4:18">
       <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1444,8 +1516,22 @@
         <v>45491</v>
       </c>
       <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="4:10">
+      <c r="L8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="11">
+        <v>45125</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="P8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>45491</v>
+      </c>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="4:18">
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1460,8 +1546,22 @@
         <v>45856</v>
       </c>
       <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="28" spans="4:10">
+      <c r="L9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="11">
+        <v>45491</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="P9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>45856</v>
+      </c>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" ht="28" spans="4:18">
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1476,44 +1576,90 @@
         <v>12</v>
       </c>
       <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="4:10">
+      <c r="L10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="P10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" ht="28" spans="4:18">
       <c r="D11" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="8">
         <v>21</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="I11" s="8">
         <v>22</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="4:10">
+      <c r="M11" s="8">
+        <v>21</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>5</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18">
       <c r="D12" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="8">
         <v>7</v>
       </c>
       <c r="F12" s="9"/>
       <c r="H12" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="8">
         <v>3</v>
       </c>
       <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="4:10">
+      <c r="L12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="8">
+        <v>3</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="P12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>3</v>
+      </c>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="4:18">
       <c r="D13" s="13">
         <v>45405</v>
       </c>
@@ -1521,7 +1667,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="13">
         <v>45711</v>
@@ -1530,10 +1676,28 @@
         <v>500</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10">
+        <v>17</v>
+      </c>
+      <c r="L13" s="13">
+        <v>45405</v>
+      </c>
+      <c r="M13" s="14">
+        <v>500</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="13">
+        <v>45711</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>500</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18">
       <c r="D14" s="16">
         <v>45406</v>
       </c>
@@ -1541,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="16">
         <v>45762</v>
@@ -1550,10 +1714,28 @@
         <v>34</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="4:10">
+        <v>17</v>
+      </c>
+      <c r="L14" s="16">
+        <v>45406</v>
+      </c>
+      <c r="M14" s="14">
+        <v>34</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="16">
+        <v>45762</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>34</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="4:18">
       <c r="D15" s="13">
         <v>45346</v>
       </c>
@@ -1561,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" s="13">
         <v>45724</v>
@@ -1570,10 +1752,28 @@
         <v>102</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="4:10">
+        <v>17</v>
+      </c>
+      <c r="L15" s="13">
+        <v>45346</v>
+      </c>
+      <c r="M15" s="14">
+        <v>102</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="13">
+        <v>45724</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>102</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="4:18">
       <c r="D16" s="13">
         <v>45528</v>
       </c>
@@ -1581,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="13">
         <v>45650</v>
@@ -1590,10 +1790,28 @@
         <v>500</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="4:10">
+        <v>17</v>
+      </c>
+      <c r="L16" s="13">
+        <v>45528</v>
+      </c>
+      <c r="M16" s="14">
+        <v>500</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="13">
+        <v>45650</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>500</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="4:18">
       <c r="D17" s="13">
         <v>45533</v>
       </c>
@@ -1601,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="13">
         <v>45655</v>
@@ -1610,10 +1828,28 @@
         <v>3</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="4:10">
+        <v>17</v>
+      </c>
+      <c r="L17" s="13">
+        <v>45533</v>
+      </c>
+      <c r="M17" s="14">
+        <v>3</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="13">
+        <v>45655</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>3</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="4:18">
       <c r="D18" s="16">
         <v>45349</v>
       </c>
@@ -1621,7 +1857,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="16">
         <v>45717</v>
@@ -1630,10 +1866,28 @@
         <v>13</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="4:10">
+        <v>17</v>
+      </c>
+      <c r="L18" s="16">
+        <v>45349</v>
+      </c>
+      <c r="M18" s="14">
+        <v>13</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="16">
+        <v>45717</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>13</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="4:18">
       <c r="D19" s="13">
         <v>45464</v>
       </c>
@@ -1641,7 +1895,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="13">
         <v>45679</v>
@@ -1650,10 +1904,28 @@
         <v>13</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="4:10">
+        <v>17</v>
+      </c>
+      <c r="L19" s="13">
+        <v>45464</v>
+      </c>
+      <c r="M19" s="14">
+        <v>13</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="13">
+        <v>45679</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>13</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="4:18">
       <c r="D20" s="13">
         <v>45466</v>
       </c>
@@ -1661,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" s="13">
         <v>45648</v>
@@ -1670,10 +1942,28 @@
         <v>100</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="4:10">
+        <v>19</v>
+      </c>
+      <c r="L20" s="13">
+        <v>45466</v>
+      </c>
+      <c r="M20" s="14">
+        <v>100</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="13">
+        <v>45648</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>100</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="4:18">
       <c r="D21" s="13">
         <v>45467</v>
       </c>
@@ -1681,7 +1971,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" s="13">
         <v>45620</v>
@@ -1690,10 +1980,28 @@
         <v>13</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10">
+        <v>17</v>
+      </c>
+      <c r="L21" s="13">
+        <v>45467</v>
+      </c>
+      <c r="M21" s="14">
+        <v>13</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="13">
+        <v>45620</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>13</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18">
       <c r="D22" s="13">
         <v>45491</v>
       </c>
@@ -1701,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" s="13">
         <v>45656</v>
@@ -1710,10 +2018,28 @@
         <v>13</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="4:10">
+        <v>17</v>
+      </c>
+      <c r="L22" s="13">
+        <v>45491</v>
+      </c>
+      <c r="M22" s="14">
+        <v>13</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="13">
+        <v>45656</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>13</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="4:18">
       <c r="D23" s="13">
         <v>45491</v>
       </c>
@@ -1721,7 +2047,7 @@
         <v>100</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" s="13">
         <v>45706</v>
@@ -1730,10 +2056,28 @@
         <v>100</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="4:10">
+        <v>19</v>
+      </c>
+      <c r="L23" s="13">
+        <v>45491</v>
+      </c>
+      <c r="M23" s="14">
+        <v>100</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="13">
+        <v>45706</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>100</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="4:18">
       <c r="D24" s="13">
         <v>45372</v>
       </c>
@@ -1741,7 +2085,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" s="13">
         <v>45769</v>
@@ -1750,10 +2094,28 @@
         <v>100</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="4:10">
+        <v>17</v>
+      </c>
+      <c r="L24" s="13">
+        <v>45372</v>
+      </c>
+      <c r="M24" s="14">
+        <v>100</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="13">
+        <v>45769</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>100</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="4:18">
       <c r="D25" s="13">
         <v>45467</v>
       </c>
@@ -1761,13 +2123,25 @@
         <v>100</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
-    </row>
-    <row r="26" customFormat="1" spans="4:10">
+      <c r="L25" s="13">
+        <v>45467</v>
+      </c>
+      <c r="M25" s="14">
+        <v>100</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26" customFormat="1" spans="4:18">
       <c r="D26" s="13">
         <v>45473</v>
       </c>
@@ -1775,17 +2149,31 @@
         <v>100</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
+      <c r="L26" s="13">
+        <v>45473</v>
+      </c>
+      <c r="M26" s="14">
+        <v>100</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/输入.xlsx
+++ b/输入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22530" windowHeight="8700"/>
+    <workbookView windowWidth="14900" windowHeight="5410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="21">
   <si>
     <t>借款人姓名</t>
   </si>
@@ -69,10 +69,13 @@
     <t>还款方式</t>
   </si>
   <si>
-    <t>每月付息，期末本息一次付清。结息周期：每月21日结息</t>
+    <t>先息后本</t>
   </si>
   <si>
     <t>等额本金</t>
+  </si>
+  <si>
+    <t>等额本息</t>
   </si>
   <si>
     <t>每月结息日</t>
@@ -1318,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="M3" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1337,6 +1340,8 @@
     <col min="13" max="13" width="22.6" customWidth="1"/>
     <col min="16" max="16" width="15.2545454545455" customWidth="1"/>
     <col min="17" max="17" width="12.0181818181818" customWidth="1"/>
+    <col min="20" max="20" width="12.8" customWidth="1"/>
+    <col min="21" max="21" width="15.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" spans="1:5">
@@ -1353,7 +1358,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:22">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1380,8 +1385,13 @@
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
+      <c r="T3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="4:18">
+    <row r="4" spans="4:22">
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1410,8 +1420,15 @@
         <v>61000</v>
       </c>
       <c r="R4" s="9"/>
+      <c r="T4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="8">
+        <v>61000</v>
+      </c>
+      <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="4:18">
+    <row r="5" spans="4:22">
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1440,8 +1457,15 @@
         <v>0.1296</v>
       </c>
       <c r="R5" s="9"/>
+      <c r="T5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.1296</v>
+      </c>
+      <c r="V5" s="9"/>
     </row>
-    <row r="6" ht="28" spans="4:18">
+    <row r="6" ht="28" spans="4:22">
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1460,18 +1484,25 @@
         <v>7</v>
       </c>
       <c r="M6" s="10">
-        <v>0.1944</v>
+        <v>0.1844</v>
       </c>
       <c r="N6" s="9"/>
       <c r="P6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="10">
-        <v>0.1944</v>
+        <v>0.1744</v>
       </c>
       <c r="R6" s="9"/>
+      <c r="T6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0.1844</v>
+      </c>
+      <c r="V6" s="9"/>
     </row>
-    <row r="7" ht="28" spans="4:18">
+    <row r="7" ht="28" spans="4:22">
       <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1497,11 +1528,18 @@
         <v>8</v>
       </c>
       <c r="Q7" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R7" s="9"/>
+      <c r="T7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="8">
+        <v>15</v>
+      </c>
+      <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:22">
       <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1530,8 +1568,15 @@
         <v>45491</v>
       </c>
       <c r="R8" s="9"/>
+      <c r="T8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="11">
+        <v>45125</v>
+      </c>
+      <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:22">
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1550,18 +1595,25 @@
         <v>10</v>
       </c>
       <c r="M9" s="11">
-        <v>45491</v>
+        <v>45583</v>
       </c>
       <c r="N9" s="9"/>
       <c r="P9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="11">
-        <v>45856</v>
+        <v>45979</v>
       </c>
       <c r="R9" s="9"/>
+      <c r="T9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="11">
+        <v>45583</v>
+      </c>
+      <c r="V9" s="9"/>
     </row>
-    <row r="10" ht="28" spans="4:18">
+    <row r="10" spans="4:22">
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1590,76 +1642,99 @@
         <v>13</v>
       </c>
       <c r="R10" s="9"/>
+      <c r="T10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="9"/>
     </row>
-    <row r="11" ht="28" spans="4:18">
+    <row r="11" ht="28" spans="4:22">
       <c r="D11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="8">
         <v>21</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="I11" s="8">
         <v>22</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="M11" s="8">
         <v>21</v>
       </c>
       <c r="N11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="Q11" s="8">
         <v>5</v>
       </c>
       <c r="R11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="U11" s="8">
+        <v>21</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" ht="28" spans="4:22">
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="8">
         <v>7</v>
       </c>
       <c r="F12" s="9"/>
       <c r="H12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="8">
         <v>3</v>
       </c>
       <c r="J12" s="9"/>
       <c r="L12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M12" s="8">
         <v>3</v>
       </c>
       <c r="N12" s="9"/>
       <c r="P12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="8">
         <v>3</v>
       </c>
       <c r="R12" s="9"/>
+      <c r="T12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="8">
+        <v>3</v>
+      </c>
+      <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:22">
       <c r="D13" s="13">
         <v>45405</v>
       </c>
@@ -1667,7 +1742,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" s="13">
         <v>45711</v>
@@ -1676,7 +1751,7 @@
         <v>500</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L13" s="13">
         <v>45405</v>
@@ -1685,7 +1760,7 @@
         <v>500</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P13" s="13">
         <v>45711</v>
@@ -1694,10 +1769,19 @@
         <v>500</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="T13" s="13">
+        <v>45405</v>
+      </c>
+      <c r="U13" s="14">
+        <v>500</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:22">
       <c r="D14" s="16">
         <v>45406</v>
       </c>
@@ -1705,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" s="16">
         <v>45762</v>
@@ -1714,7 +1798,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L14" s="16">
         <v>45406</v>
@@ -1723,7 +1807,7 @@
         <v>34</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P14" s="16">
         <v>45762</v>
@@ -1732,10 +1816,19 @@
         <v>34</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="T14" s="16">
+        <v>45406</v>
+      </c>
+      <c r="U14" s="14">
+        <v>34</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="4:18">
+    <row r="15" customFormat="1" spans="4:22">
       <c r="D15" s="13">
         <v>45346</v>
       </c>
@@ -1743,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" s="13">
         <v>45724</v>
@@ -1752,7 +1845,7 @@
         <v>102</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L15" s="13">
         <v>45346</v>
@@ -1761,7 +1854,7 @@
         <v>102</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="13">
         <v>45724</v>
@@ -1770,10 +1863,19 @@
         <v>102</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="T15" s="13">
+        <v>45346</v>
+      </c>
+      <c r="U15" s="14">
+        <v>102</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="4:18">
+    <row r="16" customFormat="1" spans="4:22">
       <c r="D16" s="13">
         <v>45528</v>
       </c>
@@ -1781,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" s="13">
         <v>45650</v>
@@ -1790,7 +1892,7 @@
         <v>500</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L16" s="13">
         <v>45528</v>
@@ -1799,7 +1901,7 @@
         <v>500</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P16" s="13">
         <v>45650</v>
@@ -1808,10 +1910,19 @@
         <v>500</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="T16" s="13">
+        <v>45528</v>
+      </c>
+      <c r="U16" s="14">
+        <v>500</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="4:18">
+    <row r="17" customFormat="1" spans="4:22">
       <c r="D17" s="13">
         <v>45533</v>
       </c>
@@ -1819,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17" s="13">
         <v>45655</v>
@@ -1828,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L17" s="13">
         <v>45533</v>
@@ -1837,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P17" s="13">
         <v>45655</v>
@@ -1846,10 +1957,19 @@
         <v>3</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="T17" s="13">
+        <v>45533</v>
+      </c>
+      <c r="U17" s="14">
+        <v>3</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="4:18">
+    <row r="18" customFormat="1" spans="4:22">
       <c r="D18" s="16">
         <v>45349</v>
       </c>
@@ -1857,7 +1977,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" s="16">
         <v>45717</v>
@@ -1866,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L18" s="16">
         <v>45349</v>
@@ -1875,7 +1995,7 @@
         <v>13</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P18" s="16">
         <v>45717</v>
@@ -1884,10 +2004,19 @@
         <v>13</v>
       </c>
       <c r="R18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="16">
+        <v>45349</v>
+      </c>
+      <c r="U18" s="14">
+        <v>13</v>
+      </c>
+      <c r="V18" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="4:18">
+    <row r="19" customFormat="1" spans="4:22">
       <c r="D19" s="13">
         <v>45464</v>
       </c>
@@ -1895,7 +2024,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" s="13">
         <v>45679</v>
@@ -1904,7 +2033,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L19" s="13">
         <v>45464</v>
@@ -1913,7 +2042,7 @@
         <v>13</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P19" s="13">
         <v>45679</v>
@@ -1922,10 +2051,19 @@
         <v>13</v>
       </c>
       <c r="R19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="13">
+        <v>45464</v>
+      </c>
+      <c r="U19" s="14">
+        <v>13</v>
+      </c>
+      <c r="V19" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="4:18">
+    <row r="20" customFormat="1" spans="4:22">
       <c r="D20" s="13">
         <v>45466</v>
       </c>
@@ -1933,7 +2071,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="13">
         <v>45648</v>
@@ -1942,7 +2080,7 @@
         <v>100</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20" s="13">
         <v>45466</v>
@@ -1951,7 +2089,7 @@
         <v>100</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P20" s="13">
         <v>45648</v>
@@ -1960,10 +2098,19 @@
         <v>100</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="T20" s="13">
+        <v>45466</v>
+      </c>
+      <c r="U20" s="14">
+        <v>100</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="4:18">
+    <row r="21" customFormat="1" spans="4:22">
       <c r="D21" s="13">
         <v>45467</v>
       </c>
@@ -1971,7 +2118,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" s="13">
         <v>45620</v>
@@ -1980,16 +2127,16 @@
         <v>13</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L21" s="13">
-        <v>45467</v>
+        <v>45528</v>
       </c>
       <c r="M21" s="14">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P21" s="13">
         <v>45620</v>
@@ -1998,10 +2145,19 @@
         <v>13</v>
       </c>
       <c r="R21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="13">
+        <v>45467</v>
+      </c>
+      <c r="U21" s="14">
+        <v>13</v>
+      </c>
+      <c r="V21" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:18">
+    <row r="22" spans="4:22">
       <c r="D22" s="13">
         <v>45491</v>
       </c>
@@ -2009,7 +2165,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" s="13">
         <v>45656</v>
@@ -2018,7 +2174,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L22" s="13">
         <v>45491</v>
@@ -2027,7 +2183,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P22" s="13">
         <v>45656</v>
@@ -2036,10 +2192,19 @@
         <v>13</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="T22" s="13">
+        <v>45491</v>
+      </c>
+      <c r="U22" s="14">
+        <v>13</v>
+      </c>
+      <c r="V22" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="4:18">
+    <row r="23" customFormat="1" spans="4:22">
       <c r="D23" s="13">
         <v>45491</v>
       </c>
@@ -2047,7 +2212,7 @@
         <v>100</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="13">
         <v>45706</v>
@@ -2056,7 +2221,7 @@
         <v>100</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23" s="13">
         <v>45491</v>
@@ -2065,7 +2230,7 @@
         <v>100</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P23" s="13">
         <v>45706</v>
@@ -2074,10 +2239,19 @@
         <v>100</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="T23" s="13">
+        <v>45491</v>
+      </c>
+      <c r="U23" s="14">
+        <v>100</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="4:18">
+    <row r="24" customFormat="1" spans="4:22">
       <c r="D24" s="13">
         <v>45372</v>
       </c>
@@ -2085,7 +2259,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="13">
         <v>45769</v>
@@ -2094,7 +2268,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L24" s="13">
         <v>45372</v>
@@ -2103,7 +2277,7 @@
         <v>100</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P24" s="13">
         <v>45769</v>
@@ -2112,10 +2286,19 @@
         <v>100</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="T24" s="13">
+        <v>45372</v>
+      </c>
+      <c r="U24" s="14">
+        <v>100</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="4:18">
+    <row r="25" customFormat="1" spans="4:22">
       <c r="D25" s="13">
         <v>45467</v>
       </c>
@@ -2123,7 +2306,7 @@
         <v>100</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
@@ -2135,13 +2318,22 @@
         <v>100</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="15"/>
+      <c r="T25" s="13">
+        <v>45467</v>
+      </c>
+      <c r="U25" s="14">
+        <v>100</v>
+      </c>
+      <c r="V25" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="26" customFormat="1" spans="4:18">
+    <row r="26" customFormat="1" spans="4:22">
       <c r="D26" s="13">
         <v>45473</v>
       </c>
@@ -2149,7 +2341,7 @@
         <v>100</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
@@ -2161,19 +2353,29 @@
         <v>100</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="15"/>
+      <c r="T26" s="13">
+        <v>45473</v>
+      </c>
+      <c r="U26" s="14">
+        <v>100</v>
+      </c>
+      <c r="V26" s="15" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="P3:R3"/>
+    <mergeCell ref="T3:V3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/输入.xlsx
+++ b/输入.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="21">
   <si>
     <t>借款人姓名</t>
   </si>
@@ -87,10 +87,10 @@
     <t>按时还款期数</t>
   </si>
   <si>
-    <t>利息</t>
+    <t>本金</t>
   </si>
   <si>
-    <t>本金</t>
+    <t>利息</t>
   </si>
   <si>
     <t>逾期利息</t>
@@ -1321,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" ht="28" spans="4:26">
+    <row r="6" spans="4:26">
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" ht="28" spans="4:26">
+    <row r="11" spans="4:26">
       <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="13" spans="4:26">
       <c r="D13" s="13">
-        <v>45191</v>
+        <v>45491</v>
       </c>
       <c r="E13" s="14">
         <v>500</v>
@@ -1823,7 +1823,7 @@
         <v>500</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L13" s="13">
         <v>45588</v>
@@ -1832,7 +1832,7 @@
         <v>500</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" s="13">
         <v>45711</v>
@@ -1841,7 +1841,7 @@
         <v>500</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T13" s="13">
         <v>45405</v>
@@ -1850,7 +1850,7 @@
         <v>500</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X13" s="13">
         <v>45405</v>
@@ -1859,13 +1859,19 @@
         <v>500</v>
       </c>
       <c r="Z13" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="4:26">
+      <c r="D14" s="13">
+        <v>45492</v>
+      </c>
+      <c r="E14" s="14">
+        <v>500</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="4:26">
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
       <c r="H14" s="16">
         <v>45762</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" s="16">
         <v>45406</v>
@@ -1882,7 +1888,7 @@
         <v>34</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" s="16">
         <v>45762</v>
@@ -1891,7 +1897,7 @@
         <v>34</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T14" s="16">
         <v>45406</v>
@@ -1900,7 +1906,7 @@
         <v>34</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X14" s="16">
         <v>45406</v>
@@ -1909,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="4:26">
@@ -1923,7 +1929,7 @@
         <v>102</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="13">
         <v>45346</v>
@@ -1932,7 +1938,7 @@
         <v>102</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="13">
         <v>45724</v>
@@ -1941,7 +1947,7 @@
         <v>102</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T15" s="13">
         <v>45346</v>
@@ -1950,7 +1956,7 @@
         <v>102</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X15" s="13">
         <v>45346</v>
@@ -1959,7 +1965,7 @@
         <v>13</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="4:26">
@@ -1973,7 +1979,7 @@
         <v>500</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" s="13">
         <v>45528</v>
@@ -1982,7 +1988,7 @@
         <v>500</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P16" s="13">
         <v>45650</v>
@@ -1991,7 +1997,7 @@
         <v>500</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T16" s="13">
         <v>45528</v>
@@ -2000,7 +2006,7 @@
         <v>500</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X16" s="13">
         <v>45528</v>
@@ -2009,7 +2015,7 @@
         <v>3</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="4:26">
@@ -2023,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L17" s="13">
         <v>45533</v>
@@ -2032,7 +2038,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P17" s="13">
         <v>45655</v>
@@ -2041,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T17" s="13">
         <v>45533</v>
@@ -2050,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X17" s="13">
         <v>45533</v>
@@ -2059,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="Z17" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="4:26">
@@ -2073,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L18" s="16">
         <v>45349</v>
@@ -2082,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P18" s="16">
         <v>45717</v>
@@ -2091,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T18" s="16">
         <v>45349</v>
@@ -2100,7 +2106,7 @@
         <v>13</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X18" s="16">
         <v>45349</v>
@@ -2109,7 +2115,7 @@
         <v>13</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="4:26">
@@ -2123,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19" s="13">
         <v>45464</v>
@@ -2132,7 +2138,7 @@
         <v>13</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P19" s="13">
         <v>45679</v>
@@ -2141,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T19" s="13">
         <v>45464</v>
@@ -2150,7 +2156,7 @@
         <v>13</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X19" s="13">
         <v>45464</v>
@@ -2159,7 +2165,7 @@
         <v>13</v>
       </c>
       <c r="Z19" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="4:26">
@@ -2209,7 +2215,7 @@
         <v>13</v>
       </c>
       <c r="Z20" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="4:26">
@@ -2223,7 +2229,7 @@
         <v>13</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" s="13">
         <v>45528</v>
@@ -2232,7 +2238,7 @@
         <v>66</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P21" s="13">
         <v>45620</v>
@@ -2241,7 +2247,7 @@
         <v>13</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T21" s="13">
         <v>45467</v>
@@ -2250,7 +2256,7 @@
         <v>13</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X21" s="13">
         <v>45467</v>
@@ -2259,7 +2265,7 @@
         <v>13</v>
       </c>
       <c r="Z21" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="4:26">
@@ -2273,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L22" s="13">
         <v>45491</v>
@@ -2282,7 +2288,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P22" s="13">
         <v>45656</v>
@@ -2291,7 +2297,7 @@
         <v>13</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T22" s="13">
         <v>45491</v>
@@ -2300,7 +2306,7 @@
         <v>13</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X22" s="13">
         <v>45491</v>
@@ -2309,7 +2315,7 @@
         <v>13</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="4:26">
@@ -2373,7 +2379,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L24" s="13">
         <v>45372</v>
@@ -2382,7 +2388,7 @@
         <v>100</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P24" s="13">
         <v>45769</v>
@@ -2391,7 +2397,7 @@
         <v>100</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T24" s="13">
         <v>45372</v>
@@ -2400,7 +2406,7 @@
         <v>100</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X24" s="13">
         <v>45372</v>
@@ -2464,7 +2470,7 @@
         <v>100</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="14"/>
@@ -2476,7 +2482,7 @@
         <v>100</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X26" s="13">
         <v>45473</v>
@@ -2486,6 +2492,28 @@
       </c>
       <c r="Z26" s="15" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="24:26">
+      <c r="X27" s="13">
+        <v>45528</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="24:26">
+      <c r="X28" s="13">
+        <v>45533</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
